--- a/posesiones/1469949.xlsx
+++ b/posesiones/1469949.xlsx
@@ -1907,10 +1907,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>7</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>8</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>4</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>6</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>6</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>15</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>27</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>17</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>20</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>22</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>24</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>15</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R40">
         <v>31</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R46">
         <v>15</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R48">
         <v>19</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50">
         <v>6</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R54">
         <v>23</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R56">
         <v>9</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R62">
         <v>18</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R68">
         <v>20</v>
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R69">
         <v>18</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R72">
         <v>13</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R74">
         <v>24</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R79">
         <v>24</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5783,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R81">
         <v>18</v>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R83">
         <v>23</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R85">
         <v>11</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6083,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R87">
         <v>5</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R89">
         <v>8</v>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R90">
         <v>23</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>14</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>9</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <v>11</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R97">
         <v>18</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>5</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>47</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R112">
         <v>11</v>
@@ -7365,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7409,10 +7409,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7462,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>22</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7565,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>13</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7668,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R119">
         <v>18</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R123">
         <v>19</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7965,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>20</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8112,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8262,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R131">
         <v>14</v>
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R132">
         <v>17</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R136">
         <v>32</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8615,7 +8615,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R138">
         <v>21</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8856,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R143">
         <v>11</v>
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8956,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R145">
         <v>5</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9103,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R149">
         <v>13</v>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9256,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R151">
         <v>15</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9353,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9450,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R155">
         <v>10</v>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R156">
         <v>15</v>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R159">
         <v>20</v>
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R160">
         <v>15</v>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R166">
         <v>29</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10097,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R168">
         <v>4</v>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>22</v>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10294,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>17</v>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10535,7 +10535,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R177">
         <v>22</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R179">
         <v>10</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10738,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10788,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R182">
         <v>24</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R184">
         <v>17</v>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R189">
         <v>18</v>
@@ -11185,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11329,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R193">
         <v>18</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R195">
         <v>3</v>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R199">
         <v>26</v>
@@ -11673,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R200">
         <v>20</v>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R202">
         <v>10</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R208">
         <v>0</v>
@@ -12117,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R209">
         <v>27</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R211">
         <v>18</v>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12311,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12358,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12452,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12499,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12640,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12784,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R223">
         <v>20</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13028,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R228">
         <v>14</v>
@@ -13081,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R229">
         <v>1</v>
@@ -13125,10 +13125,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13269,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13545,10 +13545,10 @@
         <v>1</v>
       </c>
       <c r="P239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13598,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R240">
         <v>14</v>
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R244">
         <v>23</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R246">
         <v>7</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R247">
         <v>27</v>
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R249">
         <v>13</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14145,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14195,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R252">
         <v>18</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R254">
         <v>10</v>
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R256">
         <v>9</v>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R258">
         <v>8</v>
@@ -14551,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14601,7 +14601,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R260">
         <v>6</v>
@@ -14651,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R265">
         <v>21</v>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14942,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R267">
         <v>14</v>
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15042,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R269">
         <v>16</v>
@@ -15095,7 +15095,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R270">
         <v>8</v>
@@ -15148,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15198,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R272">
         <v>17</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15301,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R274">
         <v>5</v>
@@ -15351,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15404,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R276">
         <v>9</v>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15642,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15689,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15783,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15833,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R285">
         <v>22</v>
@@ -15886,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15933,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16030,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16130,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R291">
         <v>26</v>
@@ -16183,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R293">
         <v>6</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16333,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R295">
         <v>4</v>
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16433,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R299">
         <v>5</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16633,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R301">
         <v>19</v>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16730,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16871,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R306">
         <v>0</v>
@@ -16924,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R307">
         <v>18</v>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17027,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R309">
         <v>17</v>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>6</v>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17280,7 +17280,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R314">
         <v>8</v>
@@ -17333,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>16</v>
@@ -17383,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17480,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17621,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17715,7 +17715,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17812,7 +17812,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R325">
         <v>37</v>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R326">
         <v>15</v>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R328">
         <v>5</v>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18068,7 +18068,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R330">
         <v>20</v>
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18218,7 +18218,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R333">
         <v>6</v>
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18315,7 +18315,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18362,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18456,7 +18456,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18550,7 +18550,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18644,7 +18644,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18694,7 +18694,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R343">
         <v>13</v>
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18794,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R345">
         <v>22</v>
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18941,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19038,7 +19038,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R350">
         <v>4</v>
@@ -19091,7 +19091,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R351">
         <v>17</v>
@@ -19141,7 +19141,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R353">
         <v>22</v>
@@ -19244,7 +19244,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R354">
         <v>16</v>
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19347,7 +19347,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R356">
         <v>25</v>
@@ -19397,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19447,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19541,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19685,7 +19685,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R363">
         <v>5</v>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19776,10 +19776,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19826,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19873,7 +19873,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19914,10 +19914,10 @@
         <v>1</v>
       </c>
       <c r="P368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19967,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R369">
         <v>12</v>
@@ -20017,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20067,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R371">
         <v>25</v>
@@ -20120,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R372">
         <v>27</v>
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20408,7 +20408,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R378">
         <v>17</v>
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R380">
         <v>23</v>
@@ -20558,7 +20558,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20608,7 +20608,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R382">
         <v>6</v>
@@ -20661,7 +20661,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20711,7 +20711,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R384">
         <v>8</v>
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20808,7 +20808,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20855,7 +20855,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20905,7 +20905,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R388">
         <v>23</v>
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21008,7 +21008,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R390">
         <v>7</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21152,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21246,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21296,7 +21296,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R396">
         <v>16</v>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21393,7 +21393,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21443,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R399">
         <v>18</v>
@@ -21490,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21634,7 +21634,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R403">
         <v>0</v>
@@ -21681,7 +21681,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21731,7 +21731,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R405">
         <v>25</v>
@@ -21781,7 +21781,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21828,7 +21828,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21875,7 +21875,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21925,7 +21925,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R409">
         <v>15</v>
@@ -21978,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22028,7 +22028,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R411">
         <v>19</v>
@@ -22081,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22131,7 +22131,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R413">
         <v>12</v>
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22234,7 +22234,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R415">
         <v>8</v>
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22331,7 +22331,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22422,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22469,7 +22469,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22516,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22566,7 +22566,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R422">
         <v>24</v>
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22663,7 +22663,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22757,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22851,7 +22851,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22901,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>18</v>
@@ -22951,7 +22951,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23045,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23139,7 +23139,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23189,7 +23189,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R435">
         <v>19</v>
@@ -23242,7 +23242,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R436">
         <v>9</v>
@@ -23292,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23392,7 +23392,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R439">
         <v>21</v>
@@ -23442,7 +23442,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23489,7 +23489,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23586,7 +23586,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R443">
         <v>9</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R444">
         <v>16</v>
@@ -23689,7 +23689,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23733,7 +23733,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23783,7 +23783,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R447">
         <v>17</v>
@@ -23836,7 +23836,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R448">
         <v>12</v>
@@ -23886,7 +23886,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23936,7 +23936,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23986,7 +23986,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R451">
         <v>11</v>
@@ -24039,7 +24039,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R452">
         <v>15</v>
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24186,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R455">
         <v>0</v>
@@ -24239,7 +24239,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R456">
         <v>19</v>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24342,7 +24342,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R458">
         <v>11</v>
@@ -24392,7 +24392,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24442,7 +24442,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24680,7 +24680,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R465">
         <v>17</v>
@@ -24733,7 +24733,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R466">
         <v>6</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24833,7 +24833,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R468">
         <v>14</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24933,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25033,7 +25033,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R472">
         <v>30</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25130,7 +25130,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25274,7 +25274,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R477">
         <v>8</v>
@@ -25327,7 +25327,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R478">
         <v>5</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25427,7 +25427,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R480">
         <v>4</v>
@@ -25477,7 +25477,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25527,7 +25527,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R482">
         <v>3</v>
@@ -25577,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25671,7 +25671,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25768,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R487">
         <v>9</v>
@@ -25821,7 +25821,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R488">
         <v>16</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25924,7 +25924,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R490">
         <v>10</v>
@@ -25974,7 +25974,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26015,10 +26015,10 @@
         <v>1</v>
       </c>
       <c r="P492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q492">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26059,7 +26059,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
